--- a/public/report/TemplateDGT.xlsx
+++ b/public/report/TemplateDGT.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yeduin Mateo\source\repos\Repository\PayrollManagerApp\LastPayrollApp\public\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A411823D-7B93-43D7-A3A5-26EDACBA6B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86FF51E-0021-448D-BA67-42A076E1FF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plantilla DGT3-DGT4" sheetId="1" r:id="rId1"/>
+    <sheet name="Plantilla DGT3" sheetId="1" r:id="rId1"/>
     <sheet name="Plantilla DGT2" sheetId="2" r:id="rId2"/>
-    <sheet name="Plantilla DGT5" sheetId="3" r:id="rId3"/>
-    <sheet name="Plantilla DGT11" sheetId="4" r:id="rId4"/>
-    <sheet name="Plantilla DGT12" sheetId="5" r:id="rId5"/>
+    <sheet name="Plantilla DGT4" sheetId="6" r:id="rId3"/>
+    <sheet name="Plantilla DGT5" sheetId="3" r:id="rId4"/>
+    <sheet name="Plantilla DGT11" sheetId="4" r:id="rId5"/>
+    <sheet name="Plantilla DGT12" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -917,30 +918,44 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Jacobo</author>
-    <author>Rafael_Vega</author>
-    <author>Ronny_Carreras</author>
-    <author>yacell_Borges</author>
-    <author>Mayreni Vargas</author>
-    <author>Jacobo Rodriguez Urraca</author>
+    <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nota: El formato de fecha debe ser MMAAAA. Ej: 012016.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tipo de novedad
+Ingreso=Novedad Ingreso
+Salida=Novedad de Salida
+Cambio=Novedad de Cambio
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NSS, Cédula sin guiones o
+No. Pasaporte</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="18"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -949,48 +964,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Tipo de novedad
-Ingreso=Novedad Ingreso
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>NSS, Cédula sin guiones o
-No. Pasaporte</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="18"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1005,12 +979,12 @@
 C = Cédula
 P = Pasaporte
 I = Carnet de Interior y policia
-M = Carnet de Migracion
+M = Carnet de migracion 
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1035,7 +1009,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1049,7 +1023,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1073,7 +1047,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1097,7 +1071,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1132,7 +1106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J13" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1156,7 +1130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
+    <comment ref="K13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1182,7 +1156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
+    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1207,7 +1181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
+    <comment ref="M13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1233,7 +1207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
+    <comment ref="N13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1259,7 +1233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O13" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
+    <comment ref="O13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -1283,7 +1257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
+    <comment ref="P13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -1298,7 +1272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
+    <comment ref="Q13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -1324,7 +1298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
+    <comment ref="R13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -1350,7 +1324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
+    <comment ref="S13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -1364,7 +1338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
+    <comment ref="T13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -1374,114 +1348,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Digite el codigo del establecimiento(ultimos digitos del RNL) a que pertenece el trabajador  del catálogo de establecimiento (RNL).
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Fecha de cambio, requerida si el tipo de archivo es DGT-4, es la fecha en la que se realiza el cambio especificado al trabajador.
-formato --&gt; DDMMAAAA
-Ej. 31122005 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V13" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Solo Aplica a Formularios DGT5.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W13" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Solo Aplica para Formularios DGT5</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X13" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0200-000018000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Cantidad de días trabajados por el empleado.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y13" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0200-000019000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Salario devengado por día. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z13" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001A000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>No debe llenar este Campo, se calcula automático. (Días trabajados x Salario por día).</t>
+          <t xml:space="preserve">Digite el codigo del establecimiento(ultimos digitos del RNL) a que pertenece el trabajador  del catálogo de establecimiento (RNL). </t>
         </r>
       </text>
     </comment>
@@ -1500,7 +1367,7 @@
     <author>Jacobo Rodriguez Urraca</author>
   </authors>
   <commentList>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1510,8 +1377,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Nota: El periodo debe ir en formato de mes y Año. Ej: 012016
-</t>
+          <t>Nota: El formato de fecha debe ser MMAAAA. Ej: 012016.</t>
         </r>
         <r>
           <rPr>
@@ -1525,23 +1391,39 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="B13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Nota: el formato de fecha debe ser DDMMAAAA. Ej: 01012016
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tipo de novedad
+Ingreso=Novedad Ingreso
 </t>
         </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NSS, Cédula sin guiones o
+No. Pasaporte</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="18"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1550,72 +1432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nota: formato debe ser de dos digitos maximo. Ej: 01</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Tipo de novedad:
-Ingreso=Novedad Ingreso
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>NSS, Cédula sin guiones o
-No. Pasaporte</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="18"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
+    <comment ref="D13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1629,13 +1446,13 @@
 N = NSS
 C = Cédula
 P = Pasaporte
-I = Carnet de interior y policía
-M = Carnet de Migración  
+I = Carnet de Interior y policia
+M = Carnet de Migracion
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
+    <comment ref="E13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1660,7 +1477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+    <comment ref="F13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1674,7 +1491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
+    <comment ref="G13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1698,7 +1515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
+    <comment ref="H13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1722,7 +1539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
+    <comment ref="I13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1757,7 +1574,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J13" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
+    <comment ref="J13" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1781,7 +1598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
+    <comment ref="K13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1807,7 +1624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
+    <comment ref="L13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1832,33 +1649,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Digite la Fecha en el 
-formato --&gt; DDMMAAAA
-Ej. 31122005, sin guiones ni simbolos.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000010000000}">
+    <comment ref="M13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1884,46 +1675,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O13" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-000011000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Codigo para el tipo de ingreso del trabajador</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000012000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Ocupacion Real del trabajador.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000013000000}">
+    <comment ref="N13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1949,7 +1701,46 @@
         </r>
       </text>
     </comment>
-    <comment ref="R13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000014000000}">
+    <comment ref="O13" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Codigo para el tipo de ingreso del trabajador</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Ocupacion Real del trabajador.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
       <text>
         <r>
           <rPr>
@@ -1975,7 +1766,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000015000000}">
+    <comment ref="R13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
       <text>
         <r>
           <rPr>
@@ -1985,11 +1776,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Digite el codigo del turno de horario del trabajador.</t>
+          <t>Digite la Fecha en el 
+formato --&gt; DDMMAAAA
+Ej. 31122005</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="T13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000016000000}">
+    <comment ref="S13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Digite el codigo del turno de horario del trabajador.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
       <text>
         <r>
           <rPr>
@@ -2004,7 +1821,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000017000000}">
+    <comment ref="U13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
       <text>
         <r>
           <rPr>
@@ -2020,7 +1837,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V13" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001A000000}">
+    <comment ref="V13" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
       <text>
         <r>
           <rPr>
@@ -2030,11 +1847,21 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Solo llenar en caso de ser formulario DGT5</t>
+          <t>Solo Aplica a Formularios DGT5.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="W13" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001B000000}">
+    <comment ref="W13" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
       <text>
         <r>
           <rPr>
@@ -2044,11 +1871,21 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Solo llenar en caso de ser formulario DGT5</t>
+          <t>Solo Aplica para Formularios DGT5</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="X13" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001C000000}">
+    <comment ref="X13" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0200-000018000000}">
       <text>
         <r>
           <rPr>
@@ -2058,7 +1895,35 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>No debe llenar este Campo, se calcula automatico en Formulario DGT5</t>
+          <t>Cantidad de días trabajados por el empleado.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y13" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0200-000019000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Salario devengado por día. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z13" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>No debe llenar este Campo, se calcula automático. (Días trabajados x Salario por día).</t>
         </r>
       </text>
     </comment>
@@ -2073,6 +1938,583 @@
     <author>Rafael_Vega</author>
     <author>Ronny_Carreras</author>
     <author>yacell_Borges</author>
+    <author>Mayreni Vargas</author>
+    <author>Jacobo Rodriguez Urraca</author>
+  </authors>
+  <commentList>
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nota: El periodo debe ir en formato de mes y Año. Ej: 012016
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nota: el formato de fecha debe ser DDMMAAAA. Ej: 01012016
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nota: formato debe ser de dos digitos maximo. Ej: 01</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tipo de novedad:
+Ingreso=Novedad Ingreso
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NSS, Cédula sin guiones o
+No. Pasaporte</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="18"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tipo de documento del  trabajador:
+N = NSS
+C = Cédula
+P = Pasaporte
+I = Carnet de interior y policía
+M = Carnet de Migración  
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NSS, Cédula sin guiones o
+No. Pasaporte</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="18"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Obligatorio para extranjero sin cédula</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Obligatorio para extranjero sin cédula</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Obligatorio para extranjero sin cédula</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Obligatorio para extranjero sin cédula</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>M = Masculino
+F  = Femenino</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J13" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Obligatorio para extranjero sin cedula</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Digite la Fecha en el 
+formato --&gt; DDMMAAAA
+Ej. 31122005</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Salario del período aplicable al Ministerio de Trabajo.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Digite la Fecha en el 
+formato --&gt; DDMMAAAA
+Ej. 31122005, sin guiones ni simbolos.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Digite la Fecha en el 
+formato --&gt; DDMMAAAA
+Ej. 31122005</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O13" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-000011000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Codigo para el tipo de ingreso del trabajador</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000012000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Ocupacion Real del trabajador.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000013000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Digite la Fecha en el 
+formato --&gt; DDMMAAAA
+Ej. 31122005</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000014000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Digite la Fecha en el 
+formato --&gt; DDMMAAAA
+Ej. 31122005</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000015000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Digite el codigo del turno de horario del trabajador.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000016000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Digite el codigo del establecimiento(ultimos digitos del RNL) a que pertenece el trabajador  del catálogo de establecimiento (RNL).
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Fecha de cambio, requerida si el tipo de archivo es DGT-4, es la fecha en la que se realiza el cambio especificado al trabajador.
+formato --&gt; DDMMAAAA
+Ej. 31122005 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V13" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Solo llenar en caso de ser formulario DGT5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W13" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001B000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Solo llenar en caso de ser formulario DGT5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X13" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001C000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>No debe llenar este Campo, se calcula automatico en Formulario DGT5</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jacobo</author>
+    <author>Rafael_Vega</author>
+    <author>Ronny_Carreras</author>
+    <author>yacell_Borges</author>
   </authors>
   <commentList>
     <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
@@ -2484,7 +2926,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="98">
   <si>
     <t>Sexo</t>
   </si>
@@ -2601,40 +3043,6 @@
   </si>
   <si>
     <t>M</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Plantilla de Archivos </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF6600"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>DGT3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF008080"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>DGT4</t>
-    </r>
   </si>
   <si>
     <t>ANDORRANA-147</t>
@@ -2852,6 +3260,36 @@
   </si>
   <si>
     <t xml:space="preserve"> DGT12</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Plantilla de Archivos </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF008080"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>DGT4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Plantilla de Archivos </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF6600"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>DGT3</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3746,7 +4184,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
@@ -3805,10 +4243,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="35" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="35" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4007,14 +4441,23 @@
     <xf numFmtId="49" fontId="58" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="36" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="46" fillId="36" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="20" fillId="33" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="33" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="15" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="35" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -4043,19 +4486,153 @@
     <xf numFmtId="0" fontId="24" fillId="35" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="36" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="36" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="46" fillId="36" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="20" fillId="33" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="33" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="15" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="19" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="35" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -4201,9 +4778,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>716974</xdr:colOff>
+      <xdr:colOff>154999</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>107374</xdr:rowOff>
+      <xdr:rowOff>135949</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1109224" cy="1109224"/>
     <xdr:pic>
@@ -4233,7 +4810,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1840924" y="107374"/>
+          <a:off x="1202749" y="135949"/>
           <a:ext cx="1109224" cy="1109224"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6417,6 +6994,50 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>288349</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>78799</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1109224" cy="1109224"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3ECD18F-3EE0-4C2D-B777-4A0A51983879}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1212274" y="78799"/>
+          <a:ext cx="1109224" cy="1109224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -6601,7 +7222,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -6831,7 +7452,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -7318,15 +7939,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ415"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
@@ -7356,14 +7977,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="58"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="29"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="22"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
@@ -7376,46 +7997,46 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="V1" s="3"/>
-      <c r="W1" s="57"/>
+      <c r="W1" s="56"/>
       <c r="X1" s="3">
         <v>56</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA1" s="8"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="54"/>
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:36" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="53"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="22"/>
-      <c r="H2" s="44"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
@@ -7423,40 +8044,40 @@
         <v>118</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
-      <c r="AD2" s="28"/>
+      <c r="AD2" s="27"/>
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="44"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="38" t="s">
+      <c r="U3" s="37" t="s">
         <v>27</v>
       </c>
       <c r="V3" s="3"/>
@@ -7465,7 +8086,7 @@
         <v>113</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
@@ -7473,32 +8094,32 @@
     </row>
     <row r="4" spans="1:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="44"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="U4" s="38" t="s">
         <v>46</v>
+      </c>
+      <c r="U4" s="37" t="s">
+        <v>45</v>
       </c>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
@@ -7506,7 +8127,7 @@
         <v>24</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
@@ -7514,33 +8135,33 @@
     </row>
     <row r="5" spans="1:36" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="45" t="s">
-        <v>44</v>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="44" t="s">
+        <v>43</v>
       </c>
       <c r="G5" s="22"/>
-      <c r="H5" s="44"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
       <c r="O5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="U5" s="38" t="s">
         <v>41</v>
+      </c>
+      <c r="U5" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
@@ -7548,26 +8169,26 @@
         <v>147</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA5" s="8"/>
       <c r="AB5" s="8"/>
       <c r="AH5" s="3"/>
     </row>
     <row r="6" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="43"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="40"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="39"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="3"/>
@@ -7575,7 +8196,7 @@
       <c r="R6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="T6" s="38" t="s">
+      <c r="T6" s="37" t="s">
         <v>37</v>
       </c>
       <c r="U6" s="3"/>
@@ -7591,33 +8212,33 @@
       <c r="AG6" s="3"/>
     </row>
     <row r="7" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="34" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="33" t="s">
         <v>34</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
       <c r="N7" s="3"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
-      <c r="S7" s="33" t="s">
+      <c r="S7" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3">
@@ -7626,31 +8247,31 @@
       <c r="Y7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="31"/>
       <c r="AH7" s="3"/>
     </row>
     <row r="8" spans="1:36" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="31"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="30"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="12"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="27"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
@@ -7670,12 +8291,12 @@
       <c r="AJ8" s="3"/>
     </row>
     <row r="9" spans="1:36" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="26" t="s">
+      <c r="B9" s="177"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="178" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="25"/>
@@ -7710,8 +8331,8 @@
       <c r="AJ9" s="3"/>
     </row>
     <row r="10" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="115"/>
       <c r="C10" s="20" t="s">
         <v>24</v>
       </c>
@@ -7743,14 +8364,14 @@
       <c r="AA10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AB10" s="109"/>
-      <c r="AC10" s="109"/>
-      <c r="AD10" s="109"/>
+      <c r="AB10" s="114"/>
+      <c r="AC10" s="114"/>
+      <c r="AD10" s="114"/>
       <c r="AJ10" s="3"/>
     </row>
     <row r="11" spans="1:36" s="2" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="111"/>
-      <c r="B11" s="111"/>
+      <c r="A11" s="115"/>
+      <c r="B11" s="115"/>
       <c r="C11" s="16"/>
       <c r="D11" s="15"/>
       <c r="E11" s="14"/>
@@ -7780,40 +8401,40 @@
     </row>
     <row r="12" spans="1:36" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="108"/>
-      <c r="T12" s="108"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="113"/>
+      <c r="S12" s="113"/>
+      <c r="T12" s="113"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="60"/>
-      <c r="AE12" s="60"/>
-      <c r="AF12" s="60"/>
-      <c r="AG12" s="60"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="59"/>
       <c r="AJ12" s="3"/>
     </row>
     <row r="13" spans="1:36" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7884,15 +8505,15 @@
       <c r="W13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="59"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="58"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="58"/>
       <c r="AJ13" s="3"/>
     </row>
     <row r="14" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10703,7 +11324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E76DCC7-D421-41B3-8050-AE91606EA7F3}">
   <dimension ref="A1:CA14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -10722,712 +11343,712 @@
     <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.140625" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" customWidth="1"/>
-    <col min="15" max="15" width="4" style="75" customWidth="1"/>
-    <col min="16" max="78" width="4" style="74" customWidth="1"/>
-    <col min="79" max="79" width="14.5703125" style="74" customWidth="1"/>
+    <col min="15" max="15" width="4" style="74" customWidth="1"/>
+    <col min="16" max="78" width="4" style="73" customWidth="1"/>
+    <col min="79" max="79" width="14.5703125" style="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A1" s="73"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
+      <c r="A1" s="72"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
       <c r="K1" s="22"/>
       <c r="L1" s="12"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77"/>
-      <c r="AL1" s="77"/>
-      <c r="AM1" s="77"/>
-      <c r="AN1" s="77"/>
-      <c r="AO1" s="77"/>
-      <c r="AP1" s="77"/>
-      <c r="AQ1" s="77"/>
-      <c r="AR1" s="77"/>
-      <c r="AS1" s="77"/>
-      <c r="AT1" s="77"/>
-      <c r="AU1" s="77"/>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="77"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="77"/>
-      <c r="AZ1" s="77"/>
-      <c r="BA1" s="77"/>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="77"/>
-      <c r="BD1" s="77"/>
-      <c r="BE1" s="77"/>
-      <c r="BF1" s="77"/>
-      <c r="BG1" s="77"/>
-      <c r="BH1" s="77"/>
-      <c r="BI1" s="77"/>
-      <c r="BJ1" s="77"/>
-      <c r="BK1" s="77"/>
-      <c r="BL1" s="77"/>
-      <c r="BM1" s="77"/>
-      <c r="BN1" s="77"/>
-      <c r="BO1" s="77"/>
-      <c r="BP1" s="77"/>
-      <c r="BQ1" s="77"/>
-      <c r="BR1" s="77"/>
-      <c r="BS1" s="77"/>
-      <c r="BT1" s="77"/>
-      <c r="BU1" s="77"/>
-      <c r="BV1" s="77"/>
-      <c r="BW1" s="77"/>
-      <c r="BX1" s="77"/>
-      <c r="BY1" s="55"/>
-      <c r="BZ1" s="55"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
+      <c r="AW1" s="76"/>
+      <c r="AX1" s="76"/>
+      <c r="AY1" s="76"/>
+      <c r="AZ1" s="76"/>
+      <c r="BA1" s="76"/>
+      <c r="BB1" s="76"/>
+      <c r="BC1" s="76"/>
+      <c r="BD1" s="76"/>
+      <c r="BE1" s="76"/>
+      <c r="BF1" s="76"/>
+      <c r="BG1" s="76"/>
+      <c r="BH1" s="76"/>
+      <c r="BI1" s="76"/>
+      <c r="BJ1" s="76"/>
+      <c r="BK1" s="76"/>
+      <c r="BL1" s="76"/>
+      <c r="BM1" s="76"/>
+      <c r="BN1" s="76"/>
+      <c r="BO1" s="76"/>
+      <c r="BP1" s="76"/>
+      <c r="BQ1" s="76"/>
+      <c r="BR1" s="76"/>
+      <c r="BS1" s="76"/>
+      <c r="BT1" s="76"/>
+      <c r="BU1" s="76"/>
+      <c r="BV1" s="76"/>
+      <c r="BW1" s="76"/>
+      <c r="BX1" s="76"/>
+      <c r="BY1" s="54"/>
+      <c r="BZ1" s="54"/>
       <c r="CA1" s="2"/>
     </row>
     <row r="2" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="53"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="22"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="T2" s="76" t="s">
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="76" t="s">
+      <c r="T2" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="V2" s="76"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="77"/>
-      <c r="AJ2" s="77"/>
-      <c r="AK2" s="77"/>
-      <c r="AL2" s="77"/>
-      <c r="AM2" s="77"/>
-      <c r="AN2" s="77"/>
-      <c r="AO2" s="77"/>
-      <c r="AP2" s="77"/>
-      <c r="AQ2" s="77"/>
-      <c r="AR2" s="77"/>
-      <c r="AS2" s="77"/>
-      <c r="AT2" s="77"/>
-      <c r="AU2" s="77"/>
-      <c r="AV2" s="77"/>
-      <c r="AW2" s="77"/>
-      <c r="AX2" s="77"/>
-      <c r="AY2" s="77"/>
-      <c r="AZ2" s="77"/>
-      <c r="BA2" s="77"/>
-      <c r="BB2" s="77"/>
-      <c r="BC2" s="77"/>
-      <c r="BD2" s="77"/>
-      <c r="BE2" s="77"/>
-      <c r="BF2" s="77"/>
-      <c r="BG2" s="77"/>
-      <c r="BH2" s="77"/>
-      <c r="BI2" s="77"/>
-      <c r="BJ2" s="77"/>
-      <c r="BK2" s="77"/>
-      <c r="BL2" s="77"/>
-      <c r="BM2" s="77"/>
-      <c r="BN2" s="77"/>
-      <c r="BO2" s="77"/>
-      <c r="BP2" s="77"/>
-      <c r="BQ2" s="77"/>
-      <c r="BR2" s="77"/>
-      <c r="BS2" s="77"/>
-      <c r="BT2" s="77"/>
-      <c r="BU2" s="77"/>
-      <c r="BV2" s="77"/>
-      <c r="BW2" s="77"/>
-      <c r="BX2" s="77"/>
+      <c r="U2" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" s="75"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="76"/>
+      <c r="AM2" s="76"/>
+      <c r="AN2" s="76"/>
+      <c r="AO2" s="76"/>
+      <c r="AP2" s="76"/>
+      <c r="AQ2" s="76"/>
+      <c r="AR2" s="76"/>
+      <c r="AS2" s="76"/>
+      <c r="AT2" s="76"/>
+      <c r="AU2" s="76"/>
+      <c r="AV2" s="76"/>
+      <c r="AW2" s="76"/>
+      <c r="AX2" s="76"/>
+      <c r="AY2" s="76"/>
+      <c r="AZ2" s="76"/>
+      <c r="BA2" s="76"/>
+      <c r="BB2" s="76"/>
+      <c r="BC2" s="76"/>
+      <c r="BD2" s="76"/>
+      <c r="BE2" s="76"/>
+      <c r="BF2" s="76"/>
+      <c r="BG2" s="76"/>
+      <c r="BH2" s="76"/>
+      <c r="BI2" s="76"/>
+      <c r="BJ2" s="76"/>
+      <c r="BK2" s="76"/>
+      <c r="BL2" s="76"/>
+      <c r="BM2" s="76"/>
+      <c r="BN2" s="76"/>
+      <c r="BO2" s="76"/>
+      <c r="BP2" s="76"/>
+      <c r="BQ2" s="76"/>
+      <c r="BR2" s="76"/>
+      <c r="BS2" s="76"/>
+      <c r="BT2" s="76"/>
+      <c r="BU2" s="76"/>
+      <c r="BV2" s="76"/>
+      <c r="BW2" s="76"/>
+      <c r="BX2" s="76"/>
       <c r="BY2" s="2"/>
       <c r="BZ2" s="2"/>
       <c r="CA2" s="2"/>
     </row>
     <row r="3" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="T3" s="76" t="s">
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="76" t="s">
+      <c r="U3" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="76"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="77"/>
-      <c r="AI3" s="77"/>
-      <c r="AJ3" s="77"/>
-      <c r="AK3" s="77"/>
-      <c r="AL3" s="77"/>
-      <c r="AM3" s="77"/>
-      <c r="AN3" s="77"/>
-      <c r="AO3" s="77"/>
-      <c r="AP3" s="77"/>
-      <c r="AQ3" s="77"/>
-      <c r="AR3" s="77"/>
-      <c r="AS3" s="77"/>
-      <c r="AT3" s="77"/>
-      <c r="AU3" s="77"/>
-      <c r="AV3" s="77"/>
-      <c r="AW3" s="77"/>
-      <c r="AX3" s="77"/>
-      <c r="AY3" s="77"/>
-      <c r="AZ3" s="77"/>
-      <c r="BA3" s="77"/>
-      <c r="BB3" s="77"/>
-      <c r="BC3" s="77"/>
-      <c r="BD3" s="77"/>
-      <c r="BE3" s="77"/>
-      <c r="BF3" s="77"/>
-      <c r="BG3" s="77"/>
-      <c r="BH3" s="77"/>
-      <c r="BI3" s="77"/>
-      <c r="BJ3" s="77"/>
-      <c r="BK3" s="77"/>
-      <c r="BL3" s="77"/>
-      <c r="BM3" s="77"/>
-      <c r="BN3" s="77"/>
-      <c r="BO3" s="77"/>
-      <c r="BP3" s="77"/>
-      <c r="BQ3" s="77"/>
-      <c r="BR3" s="77"/>
-      <c r="BS3" s="77"/>
-      <c r="BT3" s="77"/>
-      <c r="BU3" s="77"/>
-      <c r="BV3" s="77"/>
-      <c r="BW3" s="77"/>
-      <c r="BX3" s="77"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="76"/>
+      <c r="AJ3" s="76"/>
+      <c r="AK3" s="76"/>
+      <c r="AL3" s="76"/>
+      <c r="AM3" s="76"/>
+      <c r="AN3" s="76"/>
+      <c r="AO3" s="76"/>
+      <c r="AP3" s="76"/>
+      <c r="AQ3" s="76"/>
+      <c r="AR3" s="76"/>
+      <c r="AS3" s="76"/>
+      <c r="AT3" s="76"/>
+      <c r="AU3" s="76"/>
+      <c r="AV3" s="76"/>
+      <c r="AW3" s="76"/>
+      <c r="AX3" s="76"/>
+      <c r="AY3" s="76"/>
+      <c r="AZ3" s="76"/>
+      <c r="BA3" s="76"/>
+      <c r="BB3" s="76"/>
+      <c r="BC3" s="76"/>
+      <c r="BD3" s="76"/>
+      <c r="BE3" s="76"/>
+      <c r="BF3" s="76"/>
+      <c r="BG3" s="76"/>
+      <c r="BH3" s="76"/>
+      <c r="BI3" s="76"/>
+      <c r="BJ3" s="76"/>
+      <c r="BK3" s="76"/>
+      <c r="BL3" s="76"/>
+      <c r="BM3" s="76"/>
+      <c r="BN3" s="76"/>
+      <c r="BO3" s="76"/>
+      <c r="BP3" s="76"/>
+      <c r="BQ3" s="76"/>
+      <c r="BR3" s="76"/>
+      <c r="BS3" s="76"/>
+      <c r="BT3" s="76"/>
+      <c r="BU3" s="76"/>
+      <c r="BV3" s="76"/>
+      <c r="BW3" s="76"/>
+      <c r="BX3" s="76"/>
       <c r="BY3" s="2"/>
       <c r="BZ3" s="2"/>
       <c r="CA3" s="2"/>
     </row>
     <row r="4" spans="1:79" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="103" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="47"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="113"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="T4" s="76" t="s">
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="U4" s="76" t="s">
+      <c r="T4" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="V4" s="76"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
-      <c r="AI4" s="77"/>
-      <c r="AJ4" s="77"/>
-      <c r="AK4" s="77"/>
-      <c r="AL4" s="77"/>
-      <c r="AM4" s="77"/>
-      <c r="AN4" s="77"/>
-      <c r="AO4" s="77"/>
-      <c r="AP4" s="77"/>
-      <c r="AQ4" s="77"/>
-      <c r="AR4" s="77"/>
-      <c r="AS4" s="77"/>
-      <c r="AT4" s="77"/>
-      <c r="AU4" s="77"/>
-      <c r="AV4" s="77"/>
-      <c r="AW4" s="77"/>
-      <c r="AX4" s="77"/>
-      <c r="AY4" s="77"/>
-      <c r="AZ4" s="77"/>
-      <c r="BA4" s="77"/>
-      <c r="BB4" s="77"/>
-      <c r="BC4" s="77"/>
-      <c r="BD4" s="77"/>
-      <c r="BE4" s="77"/>
-      <c r="BF4" s="77"/>
-      <c r="BG4" s="77"/>
-      <c r="BH4" s="77"/>
-      <c r="BI4" s="77"/>
-      <c r="BJ4" s="77"/>
-      <c r="BK4" s="77"/>
-      <c r="BL4" s="77"/>
-      <c r="BM4" s="77"/>
-      <c r="BN4" s="77"/>
-      <c r="BO4" s="77"/>
-      <c r="BP4" s="77"/>
-      <c r="BQ4" s="77"/>
-      <c r="BR4" s="77"/>
-      <c r="BS4" s="77"/>
-      <c r="BT4" s="77"/>
-      <c r="BU4" s="77"/>
-      <c r="BV4" s="77"/>
-      <c r="BW4" s="77"/>
-      <c r="BX4" s="77"/>
+      <c r="U4" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" s="75"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="76"/>
+      <c r="AM4" s="76"/>
+      <c r="AN4" s="76"/>
+      <c r="AO4" s="76"/>
+      <c r="AP4" s="76"/>
+      <c r="AQ4" s="76"/>
+      <c r="AR4" s="76"/>
+      <c r="AS4" s="76"/>
+      <c r="AT4" s="76"/>
+      <c r="AU4" s="76"/>
+      <c r="AV4" s="76"/>
+      <c r="AW4" s="76"/>
+      <c r="AX4" s="76"/>
+      <c r="AY4" s="76"/>
+      <c r="AZ4" s="76"/>
+      <c r="BA4" s="76"/>
+      <c r="BB4" s="76"/>
+      <c r="BC4" s="76"/>
+      <c r="BD4" s="76"/>
+      <c r="BE4" s="76"/>
+      <c r="BF4" s="76"/>
+      <c r="BG4" s="76"/>
+      <c r="BH4" s="76"/>
+      <c r="BI4" s="76"/>
+      <c r="BJ4" s="76"/>
+      <c r="BK4" s="76"/>
+      <c r="BL4" s="76"/>
+      <c r="BM4" s="76"/>
+      <c r="BN4" s="76"/>
+      <c r="BO4" s="76"/>
+      <c r="BP4" s="76"/>
+      <c r="BQ4" s="76"/>
+      <c r="BR4" s="76"/>
+      <c r="BS4" s="76"/>
+      <c r="BT4" s="76"/>
+      <c r="BU4" s="76"/>
+      <c r="BV4" s="76"/>
+      <c r="BW4" s="76"/>
+      <c r="BX4" s="76"/>
       <c r="BY4" s="2"/>
       <c r="BZ4" s="2"/>
       <c r="CA4" s="2"/>
     </row>
     <row r="5" spans="1:79" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="102" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="43"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="76" t="s">
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="T5" s="77"/>
-      <c r="U5" s="76" t="s">
+      <c r="R5" s="75"/>
+      <c r="S5" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="V5" s="76"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="77"/>
-      <c r="AD5" s="77"/>
-      <c r="AE5" s="77"/>
-      <c r="AF5" s="77"/>
-      <c r="AG5" s="77"/>
-      <c r="AH5" s="77"/>
-      <c r="AI5" s="77"/>
-      <c r="AJ5" s="77"/>
-      <c r="AK5" s="77"/>
-      <c r="AL5" s="77"/>
-      <c r="AM5" s="77"/>
-      <c r="AN5" s="77"/>
-      <c r="AO5" s="77"/>
-      <c r="AP5" s="77"/>
-      <c r="AQ5" s="77"/>
-      <c r="AR5" s="77"/>
-      <c r="AS5" s="77"/>
-      <c r="AT5" s="77"/>
-      <c r="AU5" s="77"/>
-      <c r="AV5" s="77"/>
-      <c r="AW5" s="77"/>
-      <c r="AX5" s="77"/>
-      <c r="AY5" s="77"/>
-      <c r="AZ5" s="77"/>
-      <c r="BA5" s="77"/>
-      <c r="BB5" s="77"/>
-      <c r="BC5" s="77"/>
-      <c r="BD5" s="77"/>
-      <c r="BE5" s="77"/>
-      <c r="BF5" s="77"/>
-      <c r="BG5" s="77"/>
-      <c r="BH5" s="77"/>
-      <c r="BI5" s="77"/>
-      <c r="BJ5" s="77"/>
-      <c r="BK5" s="77"/>
-      <c r="BL5" s="77"/>
-      <c r="BM5" s="77"/>
-      <c r="BN5" s="77"/>
-      <c r="BO5" s="77"/>
-      <c r="BP5" s="77"/>
-      <c r="BQ5" s="77"/>
-      <c r="BR5" s="77"/>
-      <c r="BS5" s="77"/>
-      <c r="BT5" s="77"/>
-      <c r="BU5" s="77"/>
-      <c r="BV5" s="77"/>
-      <c r="BW5" s="77"/>
-      <c r="BX5" s="77"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5" s="75"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="76"/>
+      <c r="AF5" s="76"/>
+      <c r="AG5" s="76"/>
+      <c r="AH5" s="76"/>
+      <c r="AI5" s="76"/>
+      <c r="AJ5" s="76"/>
+      <c r="AK5" s="76"/>
+      <c r="AL5" s="76"/>
+      <c r="AM5" s="76"/>
+      <c r="AN5" s="76"/>
+      <c r="AO5" s="76"/>
+      <c r="AP5" s="76"/>
+      <c r="AQ5" s="76"/>
+      <c r="AR5" s="76"/>
+      <c r="AS5" s="76"/>
+      <c r="AT5" s="76"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="76"/>
+      <c r="BC5" s="76"/>
+      <c r="BD5" s="76"/>
+      <c r="BE5" s="76"/>
+      <c r="BF5" s="76"/>
+      <c r="BG5" s="76"/>
+      <c r="BH5" s="76"/>
+      <c r="BI5" s="76"/>
+      <c r="BJ5" s="76"/>
+      <c r="BK5" s="76"/>
+      <c r="BL5" s="76"/>
+      <c r="BM5" s="76"/>
+      <c r="BN5" s="76"/>
+      <c r="BO5" s="76"/>
+      <c r="BP5" s="76"/>
+      <c r="BQ5" s="76"/>
+      <c r="BR5" s="76"/>
+      <c r="BS5" s="76"/>
+      <c r="BT5" s="76"/>
+      <c r="BU5" s="76"/>
+      <c r="BV5" s="76"/>
+      <c r="BW5" s="76"/>
+      <c r="BX5" s="76"/>
       <c r="BY5" s="2"/>
       <c r="BZ5" s="2"/>
       <c r="CA5" s="2"/>
     </row>
     <row r="6" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="105" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="69"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="39"/>
+      <c r="I6" s="68"/>
       <c r="J6" s="9"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="113"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76" t="s">
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="T6" s="77"/>
-      <c r="U6" s="76" t="s">
+      <c r="T6" s="76"/>
+      <c r="U6" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="V6" s="76"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="77"/>
-      <c r="AF6" s="77"/>
-      <c r="AG6" s="77"/>
-      <c r="AH6" s="77"/>
-      <c r="AI6" s="77"/>
-      <c r="AJ6" s="77"/>
-      <c r="AK6" s="77"/>
-      <c r="AL6" s="77"/>
-      <c r="AM6" s="77"/>
-      <c r="AN6" s="77"/>
-      <c r="AO6" s="77"/>
-      <c r="AP6" s="77"/>
-      <c r="AQ6" s="77"/>
-      <c r="AR6" s="77"/>
-      <c r="AS6" s="77"/>
-      <c r="AT6" s="77"/>
-      <c r="AU6" s="77"/>
-      <c r="AV6" s="77"/>
-      <c r="AW6" s="77"/>
-      <c r="AX6" s="77"/>
-      <c r="AY6" s="77"/>
-      <c r="AZ6" s="77"/>
-      <c r="BA6" s="77"/>
-      <c r="BB6" s="77"/>
-      <c r="BC6" s="77"/>
-      <c r="BD6" s="77"/>
-      <c r="BE6" s="77"/>
-      <c r="BF6" s="77"/>
-      <c r="BG6" s="77"/>
-      <c r="BH6" s="77"/>
-      <c r="BI6" s="77"/>
-      <c r="BJ6" s="77"/>
-      <c r="BK6" s="77"/>
-      <c r="BL6" s="77"/>
-      <c r="BM6" s="77"/>
-      <c r="BN6" s="77"/>
-      <c r="BO6" s="77"/>
-      <c r="BP6" s="77"/>
-      <c r="BQ6" s="77"/>
-      <c r="BR6" s="77"/>
-      <c r="BS6" s="77"/>
-      <c r="BT6" s="77"/>
-      <c r="BU6" s="77"/>
-      <c r="BV6" s="77"/>
-      <c r="BW6" s="77"/>
-      <c r="BX6" s="77"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76"/>
+      <c r="AH6" s="76"/>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="76"/>
+      <c r="AK6" s="76"/>
+      <c r="AL6" s="76"/>
+      <c r="AM6" s="76"/>
+      <c r="AN6" s="76"/>
+      <c r="AO6" s="76"/>
+      <c r="AP6" s="76"/>
+      <c r="AQ6" s="76"/>
+      <c r="AR6" s="76"/>
+      <c r="AS6" s="76"/>
+      <c r="AT6" s="76"/>
+      <c r="AU6" s="76"/>
+      <c r="AV6" s="76"/>
+      <c r="AW6" s="76"/>
+      <c r="AX6" s="76"/>
+      <c r="AY6" s="76"/>
+      <c r="AZ6" s="76"/>
+      <c r="BA6" s="76"/>
+      <c r="BB6" s="76"/>
+      <c r="BC6" s="76"/>
+      <c r="BD6" s="76"/>
+      <c r="BE6" s="76"/>
+      <c r="BF6" s="76"/>
+      <c r="BG6" s="76"/>
+      <c r="BH6" s="76"/>
+      <c r="BI6" s="76"/>
+      <c r="BJ6" s="76"/>
+      <c r="BK6" s="76"/>
+      <c r="BL6" s="76"/>
+      <c r="BM6" s="76"/>
+      <c r="BN6" s="76"/>
+      <c r="BO6" s="76"/>
+      <c r="BP6" s="76"/>
+      <c r="BQ6" s="76"/>
+      <c r="BR6" s="76"/>
+      <c r="BS6" s="76"/>
+      <c r="BT6" s="76"/>
+      <c r="BU6" s="76"/>
+      <c r="BV6" s="76"/>
+      <c r="BW6" s="76"/>
+      <c r="BX6" s="76"/>
       <c r="BY6" s="2"/>
       <c r="BZ6" s="2"/>
       <c r="CA6" s="2"/>
     </row>
     <row r="7" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="34"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="69"/>
+      <c r="I7" s="68"/>
       <c r="J7" s="9"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="79" t="s">
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="80"/>
-      <c r="U7" s="80"/>
-      <c r="V7" s="80"/>
-      <c r="W7" s="77"/>
-      <c r="X7" s="77"/>
-      <c r="Y7" s="77"/>
-      <c r="Z7" s="77"/>
-      <c r="AA7" s="77"/>
-      <c r="AB7" s="77"/>
-      <c r="AC7" s="77"/>
-      <c r="AD7" s="77"/>
-      <c r="AE7" s="77"/>
-      <c r="AF7" s="77"/>
-      <c r="AG7" s="77"/>
-      <c r="AH7" s="77"/>
-      <c r="AI7" s="77"/>
-      <c r="AJ7" s="77"/>
-      <c r="AK7" s="77"/>
-      <c r="AL7" s="77"/>
-      <c r="AM7" s="77"/>
-      <c r="AN7" s="77"/>
-      <c r="AO7" s="77"/>
-      <c r="AP7" s="77"/>
-      <c r="AQ7" s="77"/>
-      <c r="AR7" s="77"/>
-      <c r="AS7" s="77"/>
-      <c r="AT7" s="77"/>
-      <c r="AU7" s="77"/>
-      <c r="AV7" s="77"/>
-      <c r="AW7" s="77"/>
-      <c r="AX7" s="77"/>
-      <c r="AY7" s="77"/>
-      <c r="AZ7" s="77"/>
-      <c r="BA7" s="77"/>
-      <c r="BB7" s="77"/>
-      <c r="BC7" s="77"/>
-      <c r="BD7" s="77"/>
-      <c r="BE7" s="77"/>
-      <c r="BF7" s="77"/>
-      <c r="BG7" s="77"/>
-      <c r="BH7" s="77"/>
-      <c r="BI7" s="77"/>
-      <c r="BJ7" s="77"/>
-      <c r="BK7" s="77"/>
-      <c r="BL7" s="77"/>
-      <c r="BM7" s="77"/>
-      <c r="BN7" s="77"/>
-      <c r="BO7" s="77"/>
-      <c r="BP7" s="77"/>
-      <c r="BQ7" s="77"/>
-      <c r="BR7" s="77"/>
-      <c r="BS7" s="77"/>
-      <c r="BT7" s="77"/>
-      <c r="BU7" s="77"/>
-      <c r="BV7" s="77"/>
-      <c r="BW7" s="77"/>
-      <c r="BX7" s="77"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="76"/>
+      <c r="X7" s="76"/>
+      <c r="Y7" s="76"/>
+      <c r="Z7" s="76"/>
+      <c r="AA7" s="76"/>
+      <c r="AB7" s="76"/>
+      <c r="AC7" s="76"/>
+      <c r="AD7" s="76"/>
+      <c r="AE7" s="76"/>
+      <c r="AF7" s="76"/>
+      <c r="AG7" s="76"/>
+      <c r="AH7" s="76"/>
+      <c r="AI7" s="76"/>
+      <c r="AJ7" s="76"/>
+      <c r="AK7" s="76"/>
+      <c r="AL7" s="76"/>
+      <c r="AM7" s="76"/>
+      <c r="AN7" s="76"/>
+      <c r="AO7" s="76"/>
+      <c r="AP7" s="76"/>
+      <c r="AQ7" s="76"/>
+      <c r="AR7" s="76"/>
+      <c r="AS7" s="76"/>
+      <c r="AT7" s="76"/>
+      <c r="AU7" s="76"/>
+      <c r="AV7" s="76"/>
+      <c r="AW7" s="76"/>
+      <c r="AX7" s="76"/>
+      <c r="AY7" s="76"/>
+      <c r="AZ7" s="76"/>
+      <c r="BA7" s="76"/>
+      <c r="BB7" s="76"/>
+      <c r="BC7" s="76"/>
+      <c r="BD7" s="76"/>
+      <c r="BE7" s="76"/>
+      <c r="BF7" s="76"/>
+      <c r="BG7" s="76"/>
+      <c r="BH7" s="76"/>
+      <c r="BI7" s="76"/>
+      <c r="BJ7" s="76"/>
+      <c r="BK7" s="76"/>
+      <c r="BL7" s="76"/>
+      <c r="BM7" s="76"/>
+      <c r="BN7" s="76"/>
+      <c r="BO7" s="76"/>
+      <c r="BP7" s="76"/>
+      <c r="BQ7" s="76"/>
+      <c r="BR7" s="76"/>
+      <c r="BS7" s="76"/>
+      <c r="BT7" s="76"/>
+      <c r="BU7" s="76"/>
+      <c r="BV7" s="76"/>
+      <c r="BW7" s="76"/>
+      <c r="BX7" s="76"/>
       <c r="BY7" s="2"/>
       <c r="BZ7" s="2"/>
       <c r="CA7" s="2"/>
     </row>
     <row r="8" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="30"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="12"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="12"/>
-      <c r="L8" s="67" t="s">
+      <c r="L8" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="115" t="s">
-        <v>67</v>
-      </c>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
-      <c r="Y8" s="115"/>
-      <c r="Z8" s="115"/>
-      <c r="AA8" s="115"/>
-      <c r="AB8" s="115"/>
-      <c r="AC8" s="115"/>
-      <c r="AD8" s="115"/>
-      <c r="AE8" s="115"/>
-      <c r="AF8" s="115"/>
-      <c r="AG8" s="115"/>
-      <c r="AH8" s="115"/>
-      <c r="AI8" s="115"/>
-      <c r="AJ8" s="115"/>
-      <c r="AK8" s="115"/>
-      <c r="AL8" s="115"/>
-      <c r="AM8" s="115"/>
-      <c r="AN8" s="77"/>
-      <c r="AO8" s="77"/>
-      <c r="AP8" s="77"/>
-      <c r="AQ8" s="77"/>
-      <c r="AR8" s="77"/>
-      <c r="AS8" s="77"/>
-      <c r="AT8" s="77"/>
-      <c r="AU8" s="77"/>
-      <c r="AV8" s="77"/>
-      <c r="AW8" s="77"/>
-      <c r="AX8" s="77"/>
-      <c r="AY8" s="77"/>
-      <c r="AZ8" s="77"/>
-      <c r="BA8" s="77"/>
-      <c r="BB8" s="77"/>
-      <c r="BC8" s="77"/>
-      <c r="BD8" s="77"/>
-      <c r="BE8" s="77"/>
-      <c r="BF8" s="77"/>
-      <c r="BG8" s="77"/>
-      <c r="BH8" s="77"/>
-      <c r="BI8" s="77"/>
-      <c r="BJ8" s="77"/>
-      <c r="BK8" s="77"/>
-      <c r="BL8" s="77"/>
-      <c r="BM8" s="77"/>
-      <c r="BN8" s="77"/>
-      <c r="BO8" s="77"/>
-      <c r="BP8" s="77"/>
-      <c r="BQ8" s="77"/>
-      <c r="BR8" s="77"/>
-      <c r="BS8" s="77"/>
-      <c r="BT8" s="77"/>
-      <c r="BU8" s="77"/>
-      <c r="BV8" s="77"/>
-      <c r="BW8" s="77"/>
-      <c r="BX8" s="77"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="119" t="s">
+        <v>66</v>
+      </c>
+      <c r="T8" s="119"/>
+      <c r="U8" s="119"/>
+      <c r="V8" s="119"/>
+      <c r="W8" s="119"/>
+      <c r="X8" s="119"/>
+      <c r="Y8" s="119"/>
+      <c r="Z8" s="119"/>
+      <c r="AA8" s="119"/>
+      <c r="AB8" s="119"/>
+      <c r="AC8" s="119"/>
+      <c r="AD8" s="119"/>
+      <c r="AE8" s="119"/>
+      <c r="AF8" s="119"/>
+      <c r="AG8" s="119"/>
+      <c r="AH8" s="119"/>
+      <c r="AI8" s="119"/>
+      <c r="AJ8" s="119"/>
+      <c r="AK8" s="119"/>
+      <c r="AL8" s="119"/>
+      <c r="AM8" s="119"/>
+      <c r="AN8" s="76"/>
+      <c r="AO8" s="76"/>
+      <c r="AP8" s="76"/>
+      <c r="AQ8" s="76"/>
+      <c r="AR8" s="76"/>
+      <c r="AS8" s="76"/>
+      <c r="AT8" s="76"/>
+      <c r="AU8" s="76"/>
+      <c r="AV8" s="76"/>
+      <c r="AW8" s="76"/>
+      <c r="AX8" s="76"/>
+      <c r="AY8" s="76"/>
+      <c r="AZ8" s="76"/>
+      <c r="BA8" s="76"/>
+      <c r="BB8" s="76"/>
+      <c r="BC8" s="76"/>
+      <c r="BD8" s="76"/>
+      <c r="BE8" s="76"/>
+      <c r="BF8" s="76"/>
+      <c r="BG8" s="76"/>
+      <c r="BH8" s="76"/>
+      <c r="BI8" s="76"/>
+      <c r="BJ8" s="76"/>
+      <c r="BK8" s="76"/>
+      <c r="BL8" s="76"/>
+      <c r="BM8" s="76"/>
+      <c r="BN8" s="76"/>
+      <c r="BO8" s="76"/>
+      <c r="BP8" s="76"/>
+      <c r="BQ8" s="76"/>
+      <c r="BR8" s="76"/>
+      <c r="BS8" s="76"/>
+      <c r="BT8" s="76"/>
+      <c r="BU8" s="76"/>
+      <c r="BV8" s="76"/>
+      <c r="BW8" s="76"/>
+      <c r="BX8" s="76"/>
       <c r="BY8" s="2"/>
       <c r="BZ8" s="2"/>
       <c r="CA8" s="2"/>
     </row>
     <row r="9" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="66" t="s">
-        <v>66</v>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="65" t="s">
+        <v>65</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="23"/>
@@ -11438,77 +12059,77 @@
       <c r="L9" s="12"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="112" t="s">
-        <v>65</v>
-      </c>
-      <c r="T9" s="112"/>
-      <c r="U9" s="112"/>
-      <c r="V9" s="112"/>
-      <c r="W9" s="112"/>
-      <c r="X9" s="112"/>
-      <c r="Y9" s="112"/>
-      <c r="Z9" s="112"/>
-      <c r="AA9" s="112"/>
-      <c r="AB9" s="112"/>
-      <c r="AC9" s="112"/>
-      <c r="AD9" s="112"/>
-      <c r="AE9" s="112"/>
-      <c r="AF9" s="112"/>
-      <c r="AG9" s="112"/>
-      <c r="AH9" s="112"/>
-      <c r="AI9" s="112"/>
-      <c r="AJ9" s="77"/>
-      <c r="AK9" s="77"/>
-      <c r="AL9" s="77"/>
-      <c r="AM9" s="77"/>
-      <c r="AN9" s="77"/>
-      <c r="AO9" s="77"/>
-      <c r="AP9" s="77"/>
-      <c r="AQ9" s="77"/>
-      <c r="AR9" s="77"/>
-      <c r="AS9" s="77"/>
-      <c r="AT9" s="77"/>
-      <c r="AU9" s="77"/>
-      <c r="AV9" s="77"/>
-      <c r="AW9" s="77"/>
-      <c r="AX9" s="77"/>
-      <c r="AY9" s="77"/>
-      <c r="AZ9" s="77"/>
-      <c r="BA9" s="77"/>
-      <c r="BB9" s="77"/>
-      <c r="BC9" s="77"/>
-      <c r="BD9" s="77"/>
-      <c r="BE9" s="77"/>
-      <c r="BF9" s="77"/>
-      <c r="BG9" s="77"/>
-      <c r="BH9" s="77"/>
-      <c r="BI9" s="77"/>
-      <c r="BJ9" s="77"/>
-      <c r="BK9" s="77"/>
-      <c r="BL9" s="77"/>
-      <c r="BM9" s="77"/>
-      <c r="BN9" s="77"/>
-      <c r="BO9" s="77"/>
-      <c r="BP9" s="77"/>
-      <c r="BQ9" s="77"/>
-      <c r="BR9" s="77"/>
-      <c r="BS9" s="77"/>
-      <c r="BT9" s="77"/>
-      <c r="BU9" s="77"/>
-      <c r="BV9" s="77"/>
-      <c r="BW9" s="77"/>
-      <c r="BX9" s="77"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="116" t="s">
+        <v>64</v>
+      </c>
+      <c r="T9" s="116"/>
+      <c r="U9" s="116"/>
+      <c r="V9" s="116"/>
+      <c r="W9" s="116"/>
+      <c r="X9" s="116"/>
+      <c r="Y9" s="116"/>
+      <c r="Z9" s="116"/>
+      <c r="AA9" s="116"/>
+      <c r="AB9" s="116"/>
+      <c r="AC9" s="116"/>
+      <c r="AD9" s="116"/>
+      <c r="AE9" s="116"/>
+      <c r="AF9" s="116"/>
+      <c r="AG9" s="116"/>
+      <c r="AH9" s="116"/>
+      <c r="AI9" s="116"/>
+      <c r="AJ9" s="76"/>
+      <c r="AK9" s="76"/>
+      <c r="AL9" s="76"/>
+      <c r="AM9" s="76"/>
+      <c r="AN9" s="76"/>
+      <c r="AO9" s="76"/>
+      <c r="AP9" s="76"/>
+      <c r="AQ9" s="76"/>
+      <c r="AR9" s="76"/>
+      <c r="AS9" s="76"/>
+      <c r="AT9" s="76"/>
+      <c r="AU9" s="76"/>
+      <c r="AV9" s="76"/>
+      <c r="AW9" s="76"/>
+      <c r="AX9" s="76"/>
+      <c r="AY9" s="76"/>
+      <c r="AZ9" s="76"/>
+      <c r="BA9" s="76"/>
+      <c r="BB9" s="76"/>
+      <c r="BC9" s="76"/>
+      <c r="BD9" s="76"/>
+      <c r="BE9" s="76"/>
+      <c r="BF9" s="76"/>
+      <c r="BG9" s="76"/>
+      <c r="BH9" s="76"/>
+      <c r="BI9" s="76"/>
+      <c r="BJ9" s="76"/>
+      <c r="BK9" s="76"/>
+      <c r="BL9" s="76"/>
+      <c r="BM9" s="76"/>
+      <c r="BN9" s="76"/>
+      <c r="BO9" s="76"/>
+      <c r="BP9" s="76"/>
+      <c r="BQ9" s="76"/>
+      <c r="BR9" s="76"/>
+      <c r="BS9" s="76"/>
+      <c r="BT9" s="76"/>
+      <c r="BU9" s="76"/>
+      <c r="BV9" s="76"/>
+      <c r="BW9" s="76"/>
+      <c r="BX9" s="76"/>
       <c r="BY9" s="2"/>
       <c r="BZ9" s="2"/>
       <c r="CA9" s="2"/>
     </row>
     <row r="10" spans="1:79" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="115"/>
       <c r="C10" s="20" t="s">
         <v>24</v>
       </c>
@@ -11522,241 +12143,241 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="65"/>
+      <c r="L10" s="64"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="77"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="77"/>
-      <c r="W10" s="77"/>
-      <c r="X10" s="77"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="77"/>
-      <c r="AA10" s="77"/>
-      <c r="AB10" s="77"/>
-      <c r="AC10" s="77"/>
-      <c r="AD10" s="77"/>
-      <c r="AE10" s="77"/>
-      <c r="AF10" s="77"/>
-      <c r="AG10" s="77"/>
-      <c r="AH10" s="77"/>
-      <c r="AI10" s="77"/>
-      <c r="AJ10" s="77"/>
-      <c r="AK10" s="77"/>
-      <c r="AL10" s="77"/>
-      <c r="AM10" s="77"/>
-      <c r="AN10" s="77"/>
-      <c r="AO10" s="77"/>
-      <c r="AP10" s="77"/>
-      <c r="AQ10" s="77"/>
-      <c r="AR10" s="77"/>
-      <c r="AS10" s="77"/>
-      <c r="AT10" s="77"/>
-      <c r="AU10" s="77"/>
-      <c r="AV10" s="77"/>
-      <c r="AW10" s="77"/>
-      <c r="AX10" s="77"/>
-      <c r="AY10" s="77"/>
-      <c r="AZ10" s="77"/>
-      <c r="BA10" s="77"/>
-      <c r="BB10" s="77"/>
-      <c r="BC10" s="77"/>
-      <c r="BD10" s="77"/>
-      <c r="BE10" s="77"/>
-      <c r="BF10" s="77"/>
-      <c r="BG10" s="77"/>
-      <c r="BH10" s="77"/>
-      <c r="BI10" s="77"/>
-      <c r="BJ10" s="77"/>
-      <c r="BK10" s="77"/>
-      <c r="BL10" s="77"/>
-      <c r="BM10" s="77"/>
-      <c r="BN10" s="77"/>
-      <c r="BO10" s="77"/>
-      <c r="BP10" s="77"/>
-      <c r="BQ10" s="77"/>
-      <c r="BR10" s="77"/>
-      <c r="BS10" s="77"/>
-      <c r="BT10" s="77"/>
-      <c r="BU10" s="77"/>
-      <c r="BV10" s="77"/>
-      <c r="BW10" s="77"/>
-      <c r="BX10" s="77"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="76"/>
+      <c r="AD10" s="76"/>
+      <c r="AE10" s="76"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="76"/>
+      <c r="AH10" s="76"/>
+      <c r="AI10" s="76"/>
+      <c r="AJ10" s="76"/>
+      <c r="AK10" s="76"/>
+      <c r="AL10" s="76"/>
+      <c r="AM10" s="76"/>
+      <c r="AN10" s="76"/>
+      <c r="AO10" s="76"/>
+      <c r="AP10" s="76"/>
+      <c r="AQ10" s="76"/>
+      <c r="AR10" s="76"/>
+      <c r="AS10" s="76"/>
+      <c r="AT10" s="76"/>
+      <c r="AU10" s="76"/>
+      <c r="AV10" s="76"/>
+      <c r="AW10" s="76"/>
+      <c r="AX10" s="76"/>
+      <c r="AY10" s="76"/>
+      <c r="AZ10" s="76"/>
+      <c r="BA10" s="76"/>
+      <c r="BB10" s="76"/>
+      <c r="BC10" s="76"/>
+      <c r="BD10" s="76"/>
+      <c r="BE10" s="76"/>
+      <c r="BF10" s="76"/>
+      <c r="BG10" s="76"/>
+      <c r="BH10" s="76"/>
+      <c r="BI10" s="76"/>
+      <c r="BJ10" s="76"/>
+      <c r="BK10" s="76"/>
+      <c r="BL10" s="76"/>
+      <c r="BM10" s="76"/>
+      <c r="BN10" s="76"/>
+      <c r="BO10" s="76"/>
+      <c r="BP10" s="76"/>
+      <c r="BQ10" s="76"/>
+      <c r="BR10" s="76"/>
+      <c r="BS10" s="76"/>
+      <c r="BT10" s="76"/>
+      <c r="BU10" s="76"/>
+      <c r="BV10" s="76"/>
+      <c r="BW10" s="76"/>
+      <c r="BX10" s="76"/>
       <c r="BY10" s="2"/>
       <c r="BZ10" s="2"/>
       <c r="CA10" s="2"/>
     </row>
-    <row r="11" spans="1:79" s="124" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="121"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="123"/>
-      <c r="P11" s="123"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="123"/>
-      <c r="T11" s="123"/>
-      <c r="U11" s="123"/>
-      <c r="V11" s="123"/>
-      <c r="W11" s="123"/>
-      <c r="X11" s="123"/>
-      <c r="Y11" s="123"/>
-      <c r="Z11" s="123"/>
-      <c r="AA11" s="123"/>
-      <c r="AB11" s="123"/>
-      <c r="AC11" s="123"/>
-      <c r="AD11" s="123"/>
-      <c r="AE11" s="123"/>
-      <c r="AF11" s="123"/>
-      <c r="AG11" s="123"/>
-      <c r="AH11" s="123"/>
-      <c r="AI11" s="123"/>
-      <c r="AJ11" s="123"/>
-      <c r="AK11" s="123"/>
-      <c r="AL11" s="123"/>
-      <c r="AM11" s="123"/>
-      <c r="AN11" s="123"/>
-      <c r="AO11" s="123"/>
-      <c r="AP11" s="123"/>
-      <c r="AQ11" s="123"/>
-      <c r="AR11" s="123"/>
-      <c r="AS11" s="123"/>
-      <c r="AT11" s="123"/>
-      <c r="AU11" s="123"/>
-      <c r="AV11" s="123"/>
-      <c r="AW11" s="123"/>
-      <c r="AX11" s="123"/>
-      <c r="AY11" s="123"/>
-      <c r="AZ11" s="123"/>
-      <c r="BA11" s="123"/>
-      <c r="BB11" s="123"/>
-      <c r="BC11" s="123"/>
-      <c r="BD11" s="123"/>
-      <c r="BE11" s="123"/>
-      <c r="BF11" s="123"/>
-      <c r="BG11" s="123"/>
-      <c r="BH11" s="123"/>
-      <c r="BI11" s="123"/>
-      <c r="BJ11" s="123"/>
-      <c r="BK11" s="123"/>
-      <c r="BL11" s="123"/>
-      <c r="BM11" s="123"/>
-      <c r="BN11" s="123"/>
-      <c r="BO11" s="123"/>
-      <c r="BP11" s="123"/>
-      <c r="BQ11" s="123"/>
-      <c r="BR11" s="123"/>
-      <c r="BS11" s="123"/>
-      <c r="BT11" s="123"/>
-      <c r="BU11" s="123"/>
-      <c r="BV11" s="123"/>
-      <c r="BW11" s="123"/>
-      <c r="BX11" s="123"/>
-      <c r="BY11" s="121"/>
-      <c r="BZ11" s="121"/>
-      <c r="CA11" s="121"/>
+    <row r="11" spans="1:79" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="63"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="109"/>
+      <c r="T11" s="109"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="109"/>
+      <c r="W11" s="109"/>
+      <c r="X11" s="109"/>
+      <c r="Y11" s="109"/>
+      <c r="Z11" s="109"/>
+      <c r="AA11" s="109"/>
+      <c r="AB11" s="109"/>
+      <c r="AC11" s="109"/>
+      <c r="AD11" s="109"/>
+      <c r="AE11" s="109"/>
+      <c r="AF11" s="109"/>
+      <c r="AG11" s="109"/>
+      <c r="AH11" s="109"/>
+      <c r="AI11" s="109"/>
+      <c r="AJ11" s="109"/>
+      <c r="AK11" s="109"/>
+      <c r="AL11" s="109"/>
+      <c r="AM11" s="109"/>
+      <c r="AN11" s="109"/>
+      <c r="AO11" s="109"/>
+      <c r="AP11" s="109"/>
+      <c r="AQ11" s="109"/>
+      <c r="AR11" s="109"/>
+      <c r="AS11" s="109"/>
+      <c r="AT11" s="109"/>
+      <c r="AU11" s="109"/>
+      <c r="AV11" s="109"/>
+      <c r="AW11" s="109"/>
+      <c r="AX11" s="109"/>
+      <c r="AY11" s="109"/>
+      <c r="AZ11" s="109"/>
+      <c r="BA11" s="109"/>
+      <c r="BB11" s="109"/>
+      <c r="BC11" s="109"/>
+      <c r="BD11" s="109"/>
+      <c r="BE11" s="109"/>
+      <c r="BF11" s="109"/>
+      <c r="BG11" s="109"/>
+      <c r="BH11" s="109"/>
+      <c r="BI11" s="109"/>
+      <c r="BJ11" s="109"/>
+      <c r="BK11" s="109"/>
+      <c r="BL11" s="109"/>
+      <c r="BM11" s="109"/>
+      <c r="BN11" s="109"/>
+      <c r="BO11" s="109"/>
+      <c r="BP11" s="109"/>
+      <c r="BQ11" s="109"/>
+      <c r="BR11" s="109"/>
+      <c r="BS11" s="109"/>
+      <c r="BT11" s="109"/>
+      <c r="BU11" s="109"/>
+      <c r="BV11" s="109"/>
+      <c r="BW11" s="109"/>
+      <c r="BX11" s="109"/>
+      <c r="BY11" s="107"/>
+      <c r="BZ11" s="107"/>
+      <c r="CA11" s="107"/>
     </row>
     <row r="12" spans="1:79" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="84"/>
-      <c r="T12" s="84"/>
-      <c r="U12" s="84"/>
-      <c r="V12" s="84"/>
-      <c r="W12" s="84"/>
-      <c r="X12" s="84"/>
-      <c r="Y12" s="84"/>
-      <c r="Z12" s="84"/>
-      <c r="AA12" s="84"/>
-      <c r="AB12" s="84"/>
-      <c r="AC12" s="84"/>
-      <c r="AD12" s="84"/>
-      <c r="AE12" s="84"/>
-      <c r="AF12" s="84"/>
-      <c r="AG12" s="84"/>
-      <c r="AH12" s="84"/>
-      <c r="AI12" s="84"/>
-      <c r="AJ12" s="84"/>
-      <c r="AK12" s="84"/>
-      <c r="AL12" s="84"/>
-      <c r="AM12" s="84"/>
-      <c r="AN12" s="84"/>
-      <c r="AO12" s="84"/>
-      <c r="AP12" s="84"/>
-      <c r="AQ12" s="84"/>
-      <c r="AR12" s="84"/>
-      <c r="AS12" s="84"/>
-      <c r="AT12" s="84"/>
-      <c r="AU12" s="84"/>
-      <c r="AV12" s="84"/>
-      <c r="AW12" s="84"/>
-      <c r="AX12" s="84"/>
-      <c r="AY12" s="84"/>
-      <c r="AZ12" s="84"/>
-      <c r="BA12" s="84"/>
-      <c r="BB12" s="84"/>
-      <c r="BC12" s="84"/>
-      <c r="BD12" s="84"/>
-      <c r="BE12" s="84"/>
-      <c r="BF12" s="84"/>
-      <c r="BG12" s="84"/>
-      <c r="BH12" s="84"/>
-      <c r="BI12" s="84"/>
-      <c r="BJ12" s="84"/>
-      <c r="BK12" s="84"/>
-      <c r="BL12" s="84"/>
-      <c r="BM12" s="84"/>
-      <c r="BN12" s="84"/>
-      <c r="BO12" s="84"/>
-      <c r="BP12" s="84"/>
-      <c r="BQ12" s="84"/>
-      <c r="BR12" s="84"/>
-      <c r="BS12" s="84"/>
-      <c r="BT12" s="84"/>
-      <c r="BU12" s="84"/>
-      <c r="BV12" s="84"/>
-      <c r="BW12" s="84"/>
-      <c r="BX12" s="84"/>
-      <c r="BY12" s="84"/>
-      <c r="BZ12" s="84"/>
-      <c r="CA12" s="85"/>
-    </row>
-    <row r="13" spans="1:79" ht="33" x14ac:dyDescent="0.25">
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" s="83"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="83"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="83"/>
+      <c r="AB12" s="83"/>
+      <c r="AC12" s="83"/>
+      <c r="AD12" s="83"/>
+      <c r="AE12" s="83"/>
+      <c r="AF12" s="83"/>
+      <c r="AG12" s="83"/>
+      <c r="AH12" s="83"/>
+      <c r="AI12" s="83"/>
+      <c r="AJ12" s="83"/>
+      <c r="AK12" s="83"/>
+      <c r="AL12" s="83"/>
+      <c r="AM12" s="83"/>
+      <c r="AN12" s="83"/>
+      <c r="AO12" s="83"/>
+      <c r="AP12" s="83"/>
+      <c r="AQ12" s="83"/>
+      <c r="AR12" s="83"/>
+      <c r="AS12" s="83"/>
+      <c r="AT12" s="83"/>
+      <c r="AU12" s="83"/>
+      <c r="AV12" s="83"/>
+      <c r="AW12" s="83"/>
+      <c r="AX12" s="83"/>
+      <c r="AY12" s="83"/>
+      <c r="AZ12" s="83"/>
+      <c r="BA12" s="83"/>
+      <c r="BB12" s="83"/>
+      <c r="BC12" s="83"/>
+      <c r="BD12" s="83"/>
+      <c r="BE12" s="83"/>
+      <c r="BF12" s="83"/>
+      <c r="BG12" s="83"/>
+      <c r="BH12" s="83"/>
+      <c r="BI12" s="83"/>
+      <c r="BJ12" s="83"/>
+      <c r="BK12" s="83"/>
+      <c r="BL12" s="83"/>
+      <c r="BM12" s="83"/>
+      <c r="BN12" s="83"/>
+      <c r="BO12" s="83"/>
+      <c r="BP12" s="83"/>
+      <c r="BQ12" s="83"/>
+      <c r="BR12" s="83"/>
+      <c r="BS12" s="83"/>
+      <c r="BT12" s="83"/>
+      <c r="BU12" s="83"/>
+      <c r="BV12" s="83"/>
+      <c r="BW12" s="83"/>
+      <c r="BX12" s="83"/>
+      <c r="BY12" s="83"/>
+      <c r="BZ12" s="83"/>
+      <c r="CA12" s="84"/>
+    </row>
+    <row r="13" spans="1:79" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -11784,277 +12405,277 @@
       <c r="K13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="M13" s="61" t="s">
+      <c r="L13" s="61" t="s">
         <v>62</v>
+      </c>
+      <c r="M13" s="60" t="s">
+        <v>61</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="P13" s="125" t="s">
+      <c r="O13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="Q13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="R13" s="125" t="s">
+      <c r="P13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="S13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="T13" s="125" t="s">
+      <c r="R13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="S13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="U13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="V13" s="125" t="s">
+      <c r="T13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="U13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="W13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="X13" s="125" t="s">
+      <c r="V13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="W13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="Y13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z13" s="125" t="s">
+      <c r="X13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="AA13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB13" s="125" t="s">
+      <c r="Z13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="AC13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD13" s="125" t="s">
+      <c r="AB13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="AE13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF13" s="125" t="s">
+      <c r="AD13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="AG13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH13" s="125" t="s">
+      <c r="AF13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="AI13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ13" s="125" t="s">
+      <c r="AH13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="AK13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL13" s="125" t="s">
+      <c r="AJ13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="AM13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN13" s="125" t="s">
+      <c r="AL13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="AO13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP13" s="125" t="s">
+      <c r="AN13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="AQ13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR13" s="125" t="s">
+      <c r="AP13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="AS13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT13" s="125" t="s">
+      <c r="AR13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="AU13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV13" s="125" t="s">
+      <c r="AT13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="AW13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX13" s="125" t="s">
+      <c r="AV13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="AY13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="AZ13" s="125" t="s">
+      <c r="AX13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="BA13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="BB13" s="125" t="s">
+      <c r="AZ13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="BC13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="BD13" s="125" t="s">
+      <c r="BB13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="BE13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF13" s="125" t="s">
+      <c r="BD13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="BG13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="BH13" s="125" t="s">
+      <c r="BF13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="BG13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="BI13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="BJ13" s="125" t="s">
+      <c r="BH13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="BK13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL13" s="125" t="s">
+      <c r="BJ13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="BM13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="BN13" s="125" t="s">
+      <c r="BL13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="BM13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="BO13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="BP13" s="125" t="s">
+      <c r="BN13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="BO13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="BQ13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="BR13" s="125" t="s">
+      <c r="BP13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="BQ13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="BS13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="BT13" s="125" t="s">
+      <c r="BR13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="BS13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="BU13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="BV13" s="125" t="s">
+      <c r="BT13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="BU13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="BW13" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="BX13" s="125" t="s">
+      <c r="BV13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="BW13" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="BY13" s="126" t="s">
-        <v>61</v>
-      </c>
-      <c r="BZ13" s="126" t="s">
+      <c r="BX13" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="BY13" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="CA13" s="127" t="s">
+      <c r="BZ13" s="111" t="s">
         <v>59</v>
       </c>
+      <c r="CA13" s="112" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="O14" s="82"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="83"/>
-      <c r="Y14" s="83"/>
-      <c r="Z14" s="83"/>
-      <c r="AA14" s="83"/>
-      <c r="AB14" s="83"/>
-      <c r="AC14" s="83"/>
-      <c r="AD14" s="83"/>
-      <c r="AE14" s="83"/>
-      <c r="AF14" s="83"/>
-      <c r="AG14" s="83"/>
-      <c r="AH14" s="83"/>
-      <c r="AI14" s="83"/>
-      <c r="AJ14" s="83"/>
-      <c r="AK14" s="83"/>
-      <c r="AL14" s="83"/>
-      <c r="AM14" s="83"/>
-      <c r="AN14" s="83"/>
-      <c r="AO14" s="83"/>
-      <c r="AP14" s="83"/>
-      <c r="AQ14" s="83"/>
-      <c r="AR14" s="83"/>
-      <c r="AS14" s="83"/>
-      <c r="AT14" s="83"/>
-      <c r="AU14" s="83"/>
-      <c r="AV14" s="83"/>
-      <c r="AW14" s="83"/>
-      <c r="AX14" s="83"/>
-      <c r="AY14" s="83"/>
-      <c r="AZ14" s="83"/>
-      <c r="BA14" s="83"/>
-      <c r="BB14" s="83"/>
-      <c r="BC14" s="83"/>
-      <c r="BD14" s="83"/>
-      <c r="BE14" s="83"/>
-      <c r="BF14" s="83"/>
-      <c r="BG14" s="83"/>
-      <c r="BH14" s="83"/>
-      <c r="BI14" s="83"/>
-      <c r="BJ14" s="83"/>
-      <c r="BK14" s="83"/>
-      <c r="BL14" s="83"/>
-      <c r="BM14" s="83"/>
-      <c r="BN14" s="83"/>
-      <c r="BO14" s="83"/>
-      <c r="BP14" s="83"/>
-      <c r="BQ14" s="83"/>
-      <c r="BR14" s="83"/>
-      <c r="BS14" s="83"/>
-      <c r="BT14" s="83"/>
-      <c r="BU14" s="83"/>
-      <c r="BV14" s="83"/>
-      <c r="BW14" s="83"/>
-      <c r="BX14" s="83"/>
-      <c r="BY14" s="83"/>
-      <c r="BZ14" s="83"/>
-      <c r="CA14" s="83"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="82"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="82"/>
+      <c r="AF14" s="82"/>
+      <c r="AG14" s="82"/>
+      <c r="AH14" s="82"/>
+      <c r="AI14" s="82"/>
+      <c r="AJ14" s="82"/>
+      <c r="AK14" s="82"/>
+      <c r="AL14" s="82"/>
+      <c r="AM14" s="82"/>
+      <c r="AN14" s="82"/>
+      <c r="AO14" s="82"/>
+      <c r="AP14" s="82"/>
+      <c r="AQ14" s="82"/>
+      <c r="AR14" s="82"/>
+      <c r="AS14" s="82"/>
+      <c r="AT14" s="82"/>
+      <c r="AU14" s="82"/>
+      <c r="AV14" s="82"/>
+      <c r="AW14" s="82"/>
+      <c r="AX14" s="82"/>
+      <c r="AY14" s="82"/>
+      <c r="AZ14" s="82"/>
+      <c r="BA14" s="82"/>
+      <c r="BB14" s="82"/>
+      <c r="BC14" s="82"/>
+      <c r="BD14" s="82"/>
+      <c r="BE14" s="82"/>
+      <c r="BF14" s="82"/>
+      <c r="BG14" s="82"/>
+      <c r="BH14" s="82"/>
+      <c r="BI14" s="82"/>
+      <c r="BJ14" s="82"/>
+      <c r="BK14" s="82"/>
+      <c r="BL14" s="82"/>
+      <c r="BM14" s="82"/>
+      <c r="BN14" s="82"/>
+      <c r="BO14" s="82"/>
+      <c r="BP14" s="82"/>
+      <c r="BQ14" s="82"/>
+      <c r="BR14" s="82"/>
+      <c r="BS14" s="82"/>
+      <c r="BT14" s="82"/>
+      <c r="BU14" s="82"/>
+      <c r="BV14" s="82"/>
+      <c r="BW14" s="82"/>
+      <c r="BX14" s="82"/>
+      <c r="BY14" s="82"/>
+      <c r="BZ14" s="82"/>
+      <c r="CA14" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12116,6 +12737,434 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F10BA92-75A9-427A-AC04-8C741DB3BF88}">
+  <dimension ref="A1:T13"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="173"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="156"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="126"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" s="126" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="126" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="126"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="157"/>
+      <c r="M3" s="157"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="128" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="126" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" s="126" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="126"/>
+      <c r="B4" s="169"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="157"/>
+      <c r="L4" s="157"/>
+      <c r="M4" s="157"/>
+      <c r="N4" s="156"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="126"/>
+      <c r="R4" s="128" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" s="126" t="s">
+        <v>47</v>
+      </c>
+      <c r="T4" s="126" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="126"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="163" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="140"/>
+      <c r="H5" s="162"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="157"/>
+      <c r="L5" s="157"/>
+      <c r="M5" s="157"/>
+      <c r="N5" s="156"/>
+      <c r="O5" s="128" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="128" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="126" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" s="156"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="156"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="158" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="158"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="156"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" s="156"/>
+      <c r="T6" s="155" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="154"/>
+      <c r="B7" s="175" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="154"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="150" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="130"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="128"/>
+      <c r="P7" s="128"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="149" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="148"/>
+    </row>
+    <row r="8" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="174" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="174"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="146"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="131"/>
+      <c r="M8" s="145"/>
+      <c r="N8" s="145"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="128"/>
+      <c r="R8" s="128"/>
+      <c r="S8" s="126"/>
+      <c r="T8" s="126"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="174" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="174"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="144" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="143"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="126"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="128"/>
+      <c r="R9" s="128"/>
+      <c r="S9" s="126"/>
+      <c r="T9" s="126"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="136"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="139" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="138"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="132">
+        <v>1</v>
+      </c>
+      <c r="G10" s="131"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="126"/>
+      <c r="P10" s="126"/>
+      <c r="Q10" s="128"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="126"/>
+      <c r="T10" s="126"/>
+    </row>
+    <row r="11" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="136"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="128"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="126"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="128"/>
+      <c r="R11" s="128"/>
+      <c r="S11" s="126"/>
+      <c r="T11" s="126"/>
+    </row>
+    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="126"/>
+      <c r="B12" s="127" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="127"/>
+      <c r="L12" s="127"/>
+      <c r="M12" s="127"/>
+      <c r="N12" s="127"/>
+      <c r="O12" s="127"/>
+      <c r="P12" s="127"/>
+      <c r="Q12" s="127"/>
+      <c r="R12" s="127"/>
+      <c r="S12" s="127"/>
+      <c r="T12" s="127"/>
+    </row>
+    <row r="13" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="126"/>
+      <c r="B13" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="125" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="125" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="124" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="124" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="124" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="124" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="124" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="S13" s="124" t="s">
+        <v>7</v>
+      </c>
+      <c r="T13" s="124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B12:T12"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Seleccione de la lista." sqref="L6 O13 O9:O10 M7 M2:M5" xr:uid="{00000000-0002-0000-0000-000025020000}"/>
+    <dataValidation sqref="T7 T1:T5 S6" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Longitud sobrepasa limite. Máximo 40 caracteres." sqref="G6:H13 F7:H13 F1:H5 E8:H8 E10:H11" xr:uid="{00000000-0002-0000-0000-000003000000}">
+      <formula1>0</formula1>
+      <formula2>40</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A688539-47A3-45DD-B3F4-13D33FD9CC2C}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
@@ -12152,16 +13201,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="58"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
       <c r="K1" s="22"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
@@ -12176,63 +13225,63 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="3"/>
-      <c r="Y1" s="57"/>
+      <c r="Y1" s="56"/>
       <c r="Z1" s="3">
         <v>56</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB1" s="2"/>
       <c r="AC1" s="8"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="54"/>
       <c r="AF1" s="2"/>
-      <c r="AG1" s="92"/>
+      <c r="AG1" s="91"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="53"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="22"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
       <c r="K2" s="12"/>
       <c r="L2" s="9"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X2" s="3">
         <v>5114</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z2" s="3">
         <v>118</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB2" s="2"/>
       <c r="AC2" s="8"/>
@@ -12243,49 +13292,49 @@
     </row>
     <row r="3" spans="1:33" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="103" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="47"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
       <c r="K3" s="12"/>
       <c r="L3" s="9"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
       <c r="S3" s="3"/>
       <c r="T3" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="W3" s="38" t="s">
+      <c r="W3" s="37" t="s">
         <v>27</v>
       </c>
       <c r="X3" s="3">
         <v>5115</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z3" s="3">
         <v>113</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="8"/>
@@ -12296,49 +13345,49 @@
     </row>
     <row r="4" spans="1:33" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="102" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="47"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
       <c r="K4" s="12"/>
       <c r="L4" s="9"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="113"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
       <c r="S4" s="3"/>
       <c r="T4" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W4" s="38" t="s">
         <v>46</v>
+      </c>
+      <c r="W4" s="37" t="s">
+        <v>45</v>
       </c>
       <c r="X4" s="3">
         <v>5116</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z4" s="3">
         <v>24</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB4" s="2"/>
       <c r="AC4" s="8"/>
@@ -12349,22 +13398,22 @@
     </row>
     <row r="5" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="106" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="71"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="70"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="9" t="s">
         <v>24</v>
@@ -12372,26 +13421,26 @@
       <c r="R5" s="9"/>
       <c r="S5" s="3"/>
       <c r="T5" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V5" s="2"/>
-      <c r="W5" s="38" t="s">
-        <v>41</v>
+      <c r="W5" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="X5" s="3">
         <v>5117</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z5" s="3">
         <v>147</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB5" s="2"/>
       <c r="AC5" s="8"/>
@@ -12402,20 +13451,20 @@
     </row>
     <row r="6" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="69"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="68"/>
       <c r="J6" s="9"/>
       <c r="K6" s="12"/>
       <c r="L6" s="9"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="113"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="117"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
@@ -12425,14 +13474,14 @@
         <v>38</v>
       </c>
       <c r="V6" s="2"/>
-      <c r="W6" s="38" t="s">
+      <c r="W6" s="37" t="s">
         <v>37</v>
       </c>
       <c r="X6" s="3">
         <v>5118</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z6" s="3">
         <v>71</v>
@@ -12448,38 +13497,38 @@
       <c r="AG6" s="2"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="34"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="69"/>
+      <c r="I7" s="68"/>
       <c r="J7" s="9"/>
       <c r="K7" s="12"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="33" t="s">
+      <c r="U7" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
       <c r="X7" s="3">
         <v>5119</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z7" s="3">
         <v>136</v>
@@ -12487,33 +13536,33 @@
       <c r="AA7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="91"/>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="90"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="30"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="12"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="12"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="89" t="s">
+      <c r="M8" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
@@ -12526,7 +13575,7 @@
         <v>5120</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z8" s="3">
         <v>72</v>
@@ -12542,14 +13591,14 @@
       <c r="AG8" s="2"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="66" t="s">
-        <v>41</v>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="65" t="s">
+        <v>40</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="23"/>
@@ -12573,7 +13622,7 @@
         <v>5121</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z9" s="3">
         <v>8</v>
@@ -12589,8 +13638,8 @@
       <c r="AG9" s="2"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="115"/>
       <c r="C10" s="20" t="s">
         <v>24</v>
       </c>
@@ -12620,7 +13669,7 @@
         <v>5122</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z10" s="3">
         <v>139</v>
@@ -12628,79 +13677,79 @@
       <c r="AA10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AB10" s="109"/>
-      <c r="AC10" s="109"/>
-      <c r="AD10" s="109"/>
+      <c r="AB10" s="114"/>
+      <c r="AC10" s="114"/>
+      <c r="AD10" s="114"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="116"/>
-      <c r="T11" s="116"/>
-      <c r="U11" s="116"/>
-      <c r="V11" s="116"/>
-      <c r="W11" s="116"/>
-      <c r="X11" s="116"/>
-      <c r="Y11" s="116"/>
-      <c r="Z11" s="116"/>
-      <c r="AA11" s="116"/>
-      <c r="AB11" s="116"/>
-      <c r="AC11" s="116"/>
-      <c r="AD11" s="116"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="120"/>
+      <c r="S11" s="120"/>
+      <c r="T11" s="120"/>
+      <c r="U11" s="120"/>
+      <c r="V11" s="120"/>
+      <c r="W11" s="120"/>
+      <c r="X11" s="120"/>
+      <c r="Y11" s="120"/>
+      <c r="Z11" s="120"/>
+      <c r="AA11" s="120"/>
+      <c r="AB11" s="120"/>
+      <c r="AC11" s="120"/>
+      <c r="AD11" s="120"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
     </row>
     <row r="12" spans="1:33" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="108"/>
-      <c r="T12" s="108"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="113"/>
+      <c r="S12" s="113"/>
+      <c r="T12" s="113"/>
       <c r="U12" s="7"/>
-      <c r="V12" s="85"/>
-      <c r="W12" s="85"/>
+      <c r="V12" s="84"/>
+      <c r="W12" s="84"/>
       <c r="X12" s="7"/>
-      <c r="Y12" s="88"/>
-      <c r="Z12" s="88"/>
-      <c r="AA12" s="88"/>
-      <c r="AB12" s="88"/>
-      <c r="AC12" s="88"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="87"/>
+      <c r="AA12" s="87"/>
+      <c r="AB12" s="87"/>
+      <c r="AC12" s="87"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -12764,22 +13813,22 @@
       <c r="U13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y13" s="86" t="s">
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="Z13" s="86" t="s">
+      <c r="Y13" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="AA13" s="86"/>
-      <c r="AB13" s="87" t="s">
+      <c r="Z13" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA13" s="85"/>
+      <c r="AB13" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AC13" s="86" t="s">
+      <c r="AC13" s="85" t="s">
         <v>3</v>
       </c>
     </row>
@@ -12817,7 +13866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FE8D44-8FC4-412A-BC0C-9A51AA97B4D5}">
   <dimension ref="A1:AE13"/>
   <sheetViews>
@@ -12850,16 +13899,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="58"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
       <c r="K1" s="22"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
@@ -12873,50 +13922,50 @@
       <c r="U1" s="3"/>
       <c r="V1" s="2"/>
       <c r="W1" s="3"/>
-      <c r="X1" s="57"/>
+      <c r="X1" s="56"/>
       <c r="Y1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z1" s="2"/>
       <c r="AA1" s="8"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="54"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="53"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="22"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="8"/>
@@ -12927,37 +13976,37 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
       <c r="S3" s="3"/>
       <c r="T3" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V3" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="V3" s="37" t="s">
         <v>27</v>
       </c>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="8"/>
@@ -12968,39 +14017,39 @@
     </row>
     <row r="4" spans="1:31" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="48"/>
-      <c r="O4" s="50"/>
+      <c r="M4" s="102" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="47"/>
+      <c r="O4" s="49"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
       <c r="S4" s="3"/>
       <c r="T4" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V4" s="38" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="V4" s="37" t="s">
+        <v>45</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="8"/>
@@ -13011,21 +14060,21 @@
     </row>
     <row r="5" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="107" t="s">
-        <v>92</v>
-      </c>
-      <c r="O5" s="48"/>
+      <c r="M5" s="106" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" s="47"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="9" t="s">
         <v>24</v>
@@ -13033,18 +14082,18 @@
       <c r="R5" s="9"/>
       <c r="S5" s="3"/>
       <c r="T5" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V5" s="38" t="s">
         <v>41</v>
+      </c>
+      <c r="V5" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="8"/>
@@ -13055,21 +14104,21 @@
     </row>
     <row r="6" spans="1:31" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="69"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="68"/>
       <c r="J6" s="9"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="106" t="s">
-        <v>95</v>
-      </c>
-      <c r="O6" s="71"/>
+      <c r="M6" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="O6" s="70"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
@@ -13078,7 +14127,7 @@
       <c r="U6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V6" s="38" t="s">
+      <c r="V6" s="37" t="s">
         <v>37</v>
       </c>
       <c r="W6" s="3"/>
@@ -13094,64 +14143,64 @@
       <c r="AE6" s="2"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="34"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="69"/>
+      <c r="I7" s="68"/>
       <c r="J7" s="9"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="33" t="s">
+      <c r="U7" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="32"/>
+      <c r="V7" s="31"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="31"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="117"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
       <c r="E8" s="19"/>
-      <c r="F8" s="30"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="12"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="12"/>
-      <c r="L8" s="97" t="s">
+      <c r="L8" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
@@ -13172,13 +14221,13 @@
       <c r="AE8" s="2"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="117"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="96" t="s">
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="95" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="24"/>
@@ -13211,13 +14260,13 @@
       <c r="AE9" s="2"/>
     </row>
     <row r="10" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="118" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="95"/>
+      <c r="A10" s="122" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="94"/>
       <c r="F10" s="13">
         <v>2</v>
       </c>
@@ -13226,8 +14275,8 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="94" t="s">
-        <v>87</v>
+      <c r="L10" s="93" t="s">
+        <v>86</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -13244,21 +14293,21 @@
       <c r="Y10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z10" s="109"/>
-      <c r="AA10" s="109"/>
-      <c r="AB10" s="109"/>
+      <c r="Z10" s="114"/>
+      <c r="AA10" s="114"/>
+      <c r="AB10" s="114"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
     </row>
     <row r="11" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="119" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="119"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="93"/>
+      <c r="A11" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="92"/>
       <c r="F11" s="13"/>
       <c r="G11" s="12"/>
       <c r="H11" s="11"/>
@@ -13266,7 +14315,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -13286,34 +14335,34 @@
     </row>
     <row r="12" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="108"/>
-      <c r="T12" s="108"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="63"/>
-      <c r="W12" s="63"/>
-      <c r="X12" s="63"/>
-      <c r="Y12" s="63"/>
-      <c r="Z12" s="63"/>
-      <c r="AA12" s="98"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="113"/>
+      <c r="S12" s="113"/>
+      <c r="T12" s="113"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="97"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -13378,16 +14427,16 @@
         <v>5</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z13" s="4" t="s">
         <v>3</v>
@@ -13441,7 +14490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDC94E8-DB9E-461D-99CF-F0C579692B4E}">
   <dimension ref="A1:V13"/>
   <sheetViews>
@@ -13468,16 +14517,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="58"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
       <c r="K1" s="22"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
@@ -13487,25 +14536,25 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
-      <c r="T1" s="57"/>
+      <c r="T1" s="56"/>
       <c r="U1" s="3">
         <v>56</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="53"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="22"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
       <c r="K2" s="12"/>
       <c r="L2" s="9"/>
       <c r="M2" s="2"/>
@@ -13513,134 +14562,134 @@
       <c r="O2" s="9"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R2" s="3">
         <v>5114</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T2" s="3">
         <v>118</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
       <c r="K3" s="12"/>
       <c r="L3" s="9"/>
       <c r="M3" s="12"/>
-      <c r="N3" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" s="48"/>
+      <c r="N3" s="102" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="47"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R3" s="3">
         <v>5115</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T3" s="3">
         <v>113</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
       <c r="K4" s="12"/>
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
-      <c r="N4" s="107" t="s">
-        <v>92</v>
+      <c r="N4" s="106" t="s">
+        <v>91</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R4" s="3">
         <v>5116</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T4" s="3">
         <v>24</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
       <c r="K5" s="12"/>
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
-      <c r="N5" s="105" t="s">
-        <v>96</v>
+      <c r="N5" s="104" t="s">
+        <v>95</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R5" s="3">
         <v>5117</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T5" s="3">
         <v>147</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="69"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="68"/>
       <c r="J6" s="9"/>
       <c r="K6" s="12"/>
       <c r="L6" s="9"/>
@@ -13655,7 +14704,7 @@
         <v>5118</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T6" s="3">
         <v>71</v>
@@ -13665,33 +14714,33 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="114" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="34"/>
+      <c r="A7" s="118" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="69"/>
+      <c r="I7" s="68"/>
       <c r="J7" s="9"/>
       <c r="K7" s="12"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="29"/>
+      <c r="M7" s="28"/>
       <c r="N7" s="3"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="33" t="s">
+      <c r="R7" s="32" t="s">
         <v>33</v>
       </c>
       <c r="S7" s="3">
         <v>5119</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U7" s="3">
         <v>136</v>
@@ -13701,21 +14750,21 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="30"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="12"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="12"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="29"/>
+      <c r="M8" s="28"/>
       <c r="N8" s="3"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
@@ -13725,7 +14774,7 @@
         <v>5120</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U8" s="3">
         <v>72</v>
@@ -13735,14 +14784,14 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="100" t="s">
-        <v>90</v>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="99" t="s">
+        <v>89</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="23"/>
@@ -13761,7 +14810,7 @@
         <v>5121</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U9" s="3">
         <v>8</v>
@@ -13771,8 +14820,8 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="115"/>
       <c r="C10" s="20" t="s">
         <v>24</v>
       </c>
@@ -13797,7 +14846,7 @@
         <v>5122</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U10" s="3">
         <v>139</v>
@@ -13807,60 +14856,60 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="116"/>
-      <c r="T11" s="116"/>
-      <c r="U11" s="116"/>
-      <c r="V11" s="116"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="120"/>
+      <c r="S11" s="120"/>
+      <c r="T11" s="120"/>
+      <c r="U11" s="120"/>
+      <c r="V11" s="120"/>
     </row>
     <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="108"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
       <c r="R12" s="7"/>
       <c r="S12" s="3">
         <v>5123</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U12" s="3">
         <v>59</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -13902,7 +14951,7 @@
         <v>12</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>9</v>
@@ -13910,7 +14959,7 @@
       <c r="P13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q13" s="99" t="s">
+      <c r="Q13" s="98" t="s">
         <v>12</v>
       </c>
       <c r="R13" s="5" t="s">
@@ -13920,13 +14969,13 @@
         <v>5124</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U13" s="3">
         <v>25</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
